--- a/8. MWD Summary Metrics Calculation and SHAP Values/Conversion and Summary Metrics Data.xlsx
+++ b/8. MWD Summary Metrics Calculation and SHAP Values/Conversion and Summary Metrics Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan Jin Da\Desktop\22-05-05 Supervised Learning Code\22-06-27 SHAP Values Calculation\Conversion and Summary Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan Jin Da\Desktop\May-2023-Polymer-ML-SI\8. MWD Summary Metrics Calculation and SHAP Values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115467BA-A5C3-4F1B-B4DC-5359B2266467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6A4D62D-4986-488E-9D95-7988CE9DEE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -151,6 +151,5052 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>M</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> vs. A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asymmetry Factor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>2.0237572369734398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1041666666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1308199423156098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1120599875026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0215943491422799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0752003287446001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0575408843125298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0981870034630199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2290930506478199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2230802855893901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2388300999412001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2246949030868599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1536237869089399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2009104076143098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0838156056675299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0296167247386698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0844922039612301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1100146966197699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1008039579468099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.01499493414387</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2741094052764901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4394496880499099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3624943242016001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9007092198581499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0548276557145702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.00585621970921</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9947152084556601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9316888045540701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0362869198312201</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.01316064340923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9903806794924199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.89500589854502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9223868954758101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0432224025974</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0756319514661299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0170736549533399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6925298421255199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6050744622173101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5655147588192899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.49270833333333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6719984582771199</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6862181330266399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6357274401473201</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6364824495892401</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.76935549250101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7329955174429901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.70547945205479</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6770267740123499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6199213630406299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6396564600448</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.61922163347341</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.56113074204947</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.59787758195944</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.61355932203389</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.56177536231884</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.54003590664273</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6793191156329399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.65472312703583</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.59966685174902</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.55030987969376</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5355502480249801</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.53427382890215</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5087565674255701</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.45863371095091</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5386766076421201</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.50748175182481</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4823032223982999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.44185242785553</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5996950057186401</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5734800447594199</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5149080521335401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4886685552407899</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.11319201481786</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0694814511170199</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.95852987421383</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.88428290766208</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0396438414246298</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0260688216892602</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9710409072499</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8453175662788499</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0780365009439898</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0785428511265498</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0580645161290301</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9050925925925899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9220435579075901</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9168507732476401</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8013079438353501</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.69411764705882</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.96384039900249</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9251783893985699</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8366415244144501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.6980342191481601</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0100104275286701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9763908848285701</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.92870164067247</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.76737615370126</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8346894225044601</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.81297635333203</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7160189573459701</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5598335067637801</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.85075528700906</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7983839180134</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7405841660261301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.5938221196520499</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.9368639667705001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8639661426844001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.78616352201257</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.69111969111969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>17580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20823</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21222</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20626</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10287</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11081</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11328</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14491</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21324</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23355</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20823</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21734</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21943</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15167</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17176</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16782</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17827</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31647</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30261</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34115</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28659</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29086</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30868</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27018</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26494</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30261</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30868</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31647</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33774</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29814</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32124</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34460</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28378</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31177</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31647</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30715</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32609</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34115</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33774</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31647</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32773</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33774</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>35699</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30412</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31333</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34809</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33437</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21021</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22475</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>23468</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24630</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21943</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22367</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24157</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23810</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20431</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20528</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21631</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22583</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25112</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24630</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27418</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27018</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23695</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24630</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26237</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26237</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22154</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24274</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25112</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25605</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>25357</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27553</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28378</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29667</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26237</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>27962</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>28518</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>29086</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>24630</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26237</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27553</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D20B-4861-8F1B-4081A1732E68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1796805216"/>
+        <c:axId val="1796809536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1796805216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Asymmetry</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Factor; A</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="-25000"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1796809536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1796809536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Peak Molecular Weight; M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="-25000"/>
+                  <a:t>p </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t>(gmol</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1796805216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PDI vs. A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>s</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asymmetry Factor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>2.0237572369734398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1041666666666599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1308199423156098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1120599875026</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0215943491422799</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0752003287446001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0575408843125298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0981870034630199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2290930506478199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2230802855893901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.2388300999412001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2246949030868599</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1536237869089399</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2009104076143098</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0838156056675299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0296167247386698</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0844922039612301</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1100146966197699</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1008039579468099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.01499493414387</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2741094052764901</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4394496880499099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3624943242016001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.9007092198581499</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0548276557145702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.00585621970921</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.9947152084556601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.9316888045540701</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0362869198312201</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.01316064340923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.9903806794924199</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.89500589854502</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.9223868954758101</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0432224025974</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0756319514661299</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.0170736549533399</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6925298421255199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6050744622173101</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5655147588192899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.49270833333333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6719984582771199</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.6862181330266399</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.6357274401473201</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6364824495892401</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.76935549250101</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7329955174429901</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.70547945205479</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6770267740123499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.6199213630406299</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6396564600448</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.61922163347341</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.56113074204947</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.59787758195944</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.61355932203389</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.56177536231884</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.54003590664273</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.6793191156329399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.65472312703583</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.59966685174902</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.55030987969376</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.5355502480249801</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.53427382890215</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.5087565674255701</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.45863371095091</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5386766076421201</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.50748175182481</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.4823032223982999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.44185242785553</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.5996950057186401</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5734800447594199</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5149080521335401</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.4886685552407899</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.11319201481786</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.0694814511170199</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.95852987421383</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.88428290766208</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.0396438414246298</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.0260688216892602</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9710409072499</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.8453175662788499</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0780365009439898</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0785428511265498</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0580645161290301</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.9050925925925899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.9220435579075901</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9168507732476401</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.8013079438353501</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.69411764705882</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.96384039900249</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.9251783893985699</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.8366415244144501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.6980342191481601</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.0100104275286701</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.9763908848285701</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.92870164067247</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.76737615370126</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.8346894225044601</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.81297635333203</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.7160189573459701</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.5598335067637801</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.85075528700906</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.7983839180134</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.7405841660261301</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.5938221196520499</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.9368639667705001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.8639661426844001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.78616352201257</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.69111969111969</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>2.1264002422040571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0799438990182328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1353724571930339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1767670070282454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1389476653970942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0978895374943871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1292647058823531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1461160843199538</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9679966749792186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9925742574257426</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9859013091641491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0343002744021952</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.26056338028169</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2525601992803765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2680845299376862</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2761605035405195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0934904902223415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1590909090909092</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1894626198922613</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.16322237346863</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0234905167913695</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0258109522148589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0811179277436946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0813508567626018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1904044209997489</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2027105293640683</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2859967434287043</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2994534248168392</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0802372019847515</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0947149300335375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.130967518205988</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.161552145875028</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0208201892744477</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0462785556374357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0749847281612706</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1039452613189691</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1637121212121211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2093056755978102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.2107846783190777</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.33104608139926</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1205409186290511</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1777813146586027</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2487439070116237</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2422808203741265</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.990247440960748</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1173643275364853</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2080619899431211</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2489048811013768</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0962622367250074</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1591795464394048</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2306589230658922</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.2763802240558126</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0251400560224089</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0911098840419657</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.200584632516704</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1882823918154668</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9947391819798459</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0617586002372481</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1148715068108412</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.0247105246134938</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0037529628654203</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1050545738045736</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1612741409581138</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0917001740382886</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.957190927218345</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0351761922550118</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1116695268448149</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1224407637451117</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9798141835438807</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0623664529914532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.0939601309134188</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1157286619455835</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2317494027077251</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2373150751925661</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2613363792118788</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.2273399535178533</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1370321654908526</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1879186602870813</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2792681557975083</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2515363881401615</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1380303823991618</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.1494117647058824</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.1955843831857305</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.2397619880994051</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.2278964200969771</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2507380851961196</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.3476970219285644</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3598693420438637</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1707422169557256</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2215143603133161</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2750242954324587</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3130598774163129</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1558761435608726</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1946114212108201</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.2323870700372979</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2087660790852786</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.190332326283988</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2376762144204005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.2489764585465712</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.3107660781841108</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.1578557540968428</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.2284809012497799</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.276336274001038</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.266090989046134</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1080627652225403</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1494124230553999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1813965698284914</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.2229634831460676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D20B-4861-8F1B-4081A1732E68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1796805216"/>
+        <c:axId val="1796809536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1796805216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Asymmetry</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Factor; A</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="-25000"/>
+                  <a:t>s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1796809536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1796809536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Poly</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t> Dispersity Index</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>; PDI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1796805216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.1"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>M</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="-25000"/>
+              <a:t>p</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> vs. PDI</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" baseline="-25000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1440" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asymmetry Factor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>2.1264002422040571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0799438990182328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1353724571930339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1767670070282454</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1389476653970942</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0978895374943871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1292647058823531</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1461160843199538</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9679966749792186</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9925742574257426</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9859013091641491</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0343002744021952</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.26056338028169</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.2525601992803765</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.2680845299376862</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2761605035405195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.0934904902223415</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.1590909090909092</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1894626198922613</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.16322237346863</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0234905167913695</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.0258109522148589</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.0811179277436946</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0813508567626018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.1904044209997489</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.2027105293640683</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2859967434287043</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.2994534248168392</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.0802372019847515</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.0947149300335375</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.130967518205988</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.161552145875028</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0208201892744477</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0462785556374357</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.0749847281612706</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1039452613189691</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.1637121212121211</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.2093056755978102</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.2107846783190777</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.33104608139926</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.1205409186290511</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1777813146586027</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.2487439070116237</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.2422808203741265</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.990247440960748</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.1173643275364853</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.2080619899431211</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.2489048811013768</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.0962622367250074</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.1591795464394048</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.2306589230658922</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.2763802240558126</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0251400560224089</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.0911098840419657</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.200584632516704</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.1882823918154668</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.9947391819798459</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.0617586002372481</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.1148715068108412</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.0247105246134938</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.0037529628654203</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.1050545738045736</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.1612741409581138</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.0917001740382886</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.957190927218345</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.0351761922550118</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.1116695268448149</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.1224407637451117</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.9798141835438807</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.0623664529914532</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2.0939601309134188</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1157286619455835</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2317494027077251</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2373150751925661</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.2613363792118788</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.2273399535178533</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1370321654908526</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.1879186602870813</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2792681557975083</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.2515363881401615</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1380303823991618</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.1494117647058824</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.1955843831857305</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.2397619880994051</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.2278964200969771</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.2507380851961196</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.3476970219285644</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.3598693420438637</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.1707422169557256</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.2215143603133161</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.2750242954324587</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.3130598774163129</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1558761435608726</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.1946114212108201</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.2323870700372979</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.2087660790852786</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.190332326283988</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.2376762144204005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.2489764585465712</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.3107660781841108</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.1578557540968428</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.2284809012497799</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.276336274001038</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.266090989046134</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.1080627652225403</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.1494124230553999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.1813965698284914</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.2229634831460676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>17580</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18506</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20626</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18163</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18593</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8022</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8193</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8263</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8621</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20431</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20528</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20823</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21222</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20823</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20626</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21122</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10287</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11081</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11328</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>14491</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21324</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22800</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23355</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>23021</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20823</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21734</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21943</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15167</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17176</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16782</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17827</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>30412</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31647</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30261</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34115</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28659</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29086</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30868</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>27018</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>26494</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28801</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>30261</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>29375</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>30868</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31647</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33774</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>29814</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32124</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34460</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28378</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29375</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31177</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31647</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30715</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32609</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34115</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33774</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31647</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32773</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33774</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>35699</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30412</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31333</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34809</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>33437</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>21021</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>22475</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>23468</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>24630</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>21943</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>22367</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>24157</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>23810</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>20431</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>20528</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>21631</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>22583</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>25112</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>24630</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27418</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27018</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>23695</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>24630</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26237</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26237</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>22154</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24274</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25112</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>25605</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>25357</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27553</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28378</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>29667</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>26237</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>27962</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>28518</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>29086</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>24630</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>26237</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>27553</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26886</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D20B-4861-8F1B-4081A1732E68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1796805216"/>
+        <c:axId val="1796809536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1796805216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="1.9"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Poly Dispersity Index; PDI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1796809536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1796809536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-SG"/>
+                  <a:t>Peak Molecular Weight; M</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="-25000"/>
+                  <a:t>p </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t>(gmol</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="30000"/>
+                  <a:t>-1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-SG" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-SG"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1796805216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>8964</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1021977</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48B6971E-76AE-A9B5-2EB3-3849FC355D57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1156447</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>779930</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3FCCA66-A1D6-E54E-DAFC-C3782B94A2EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>887506</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>53788</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E609F6F5-8CED-80EE-8745-513B7423DDAD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -476,8 +5522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BEX109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -6239,5 +11285,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>